--- a/2nd_attempt/ms2_proteins.xlsx
+++ b/2nd_attempt/ms2_proteins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/rna_protein_project/Protein_RNA_Optimization-main/2nd_attempt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8291E04-1B17-4446-AD62-9AD82B226E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D3E324-8C2B-6B40-A65E-0F555E5570D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="1" xr2:uid="{87D89EA5-A593-3E4C-8982-81C126836FB8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16860" xr2:uid="{87D89EA5-A593-3E4C-8982-81C126836FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -655,12 +655,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -671,87 +670,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -857,7 +776,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Single Mutation</a:t>
+              <a:t>Single Mutation from Native Sequence</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1382,8 +1301,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Double Mutation</a:t>
+              <a:t>Double Mutation from</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Native Sequence</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1869,7 +1793,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Triple Mutation</a:t>
+              <a:t>Triple Mutation from Native Sequence</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4428,8 +4352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53D215B-C4FC-1D4E-8397-0347E3F8121A}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4808,7 +4732,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="18">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4875,20 +4799,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B30">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>$B$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C30">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4900,8 +4824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B66CFA5-C9A2-3146-8E5C-F15C97926032}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4931,10 +4855,10 @@
       <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4963,10 +4887,10 @@
       <c r="H2">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4995,10 +4919,10 @@
       <c r="H3">
         <v>0.17100000000000001</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5027,79 +4951,47 @@
       <c r="H4">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18">
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18">
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18">
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18">
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>$C$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>$C$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>$C$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>$C$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L6">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>$C$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>$C$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>$C$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>$C$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
+  <conditionalFormatting sqref="L3:L8">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$C$2</formula>
     </cfRule>

--- a/2nd_attempt/ms2_proteins.xlsx
+++ b/2nd_attempt/ms2_proteins.xlsx
@@ -8,14 +8,67 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/rna_protein_project/Protein_RNA_Optimization-main/2nd_attempt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D3E324-8C2B-6B40-A65E-0F555E5570D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B560D0-B793-964F-A78F-D3511D7F851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16860" xr2:uid="{87D89EA5-A593-3E4C-8982-81C126836FB8}"/>
+    <workbookView xWindow="-102400" yWindow="-11760" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{87D89EA5-A593-3E4C-8982-81C126836FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$B$2:$B$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet3!$B$2:$B$9</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet3!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet3!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet3!$E$2:$E$9</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet3!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet3!$B$2:$B$9</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet3!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet3!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet3!$E$2:$E$9</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet3!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet3!$B$11:$B$16</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet3!$B$2:$B$9</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet3!$B$9:$B$16</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet3!$C$11:$C$16</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet3!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet3!$C$9:$C$16</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet3!$D$11:$D$16</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet3!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet3!$D$9:$D$16</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet3!$E$11:$E$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$E$2:$E$9</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet3!$E$2:$E$9</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet3!$E$9:$E$16</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet3!$F$11:$F$16</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet3!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet3!$F$9:$F$16</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet3!$B$11:$B$16</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet3!$B$2:$B$9</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet3!$B$9:$B$16</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet3!$C$11:$C$16</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet3!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet3!$C$9:$C$16</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet3!$D$11:$D$16</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet3!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet3!$D$9:$D$16</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet3!$E$11:$E$16</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet3!$E$2:$E$9</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet3!$E$9:$E$16</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet3!$F$11:$F$16</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet3!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet3!$F$9:$F$16</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$B$2:$B$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$E$2:$E$9</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$F$2:$F$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
   <si>
     <t>2b2e</t>
   </si>
@@ -526,6 +579,78 @@
   <si>
     <t>Triple</t>
   </si>
+  <si>
+    <t>Incomplete Structure, missing second half of the protein chain binding to the RNA</t>
+  </si>
+  <si>
+    <t>1_Mutation</t>
+  </si>
+  <si>
+    <t>2_Mutation</t>
+  </si>
+  <si>
+    <t>3_Mutation</t>
+  </si>
+  <si>
+    <t>4_Mutation</t>
+  </si>
+  <si>
+    <t>AF_Mutation</t>
+  </si>
+  <si>
+    <t>Pearson_Correlation</t>
+  </si>
+  <si>
+    <t>Same Protein Seq, Different RNA Seq</t>
+  </si>
+  <si>
+    <t>Same RNA Seq, Different Protein Seq</t>
+  </si>
+  <si>
+    <t>2b2e (2_Mut)</t>
+  </si>
+  <si>
+    <t>1u1y (4+_Mut)</t>
+  </si>
+  <si>
+    <t>2bny (1_Mut)</t>
+  </si>
+  <si>
+    <t>2bu1 (Nat)</t>
+  </si>
+  <si>
+    <t>2c4q (Nat)</t>
+  </si>
+  <si>
+    <t>2c4y (Nat)</t>
+  </si>
+  <si>
+    <t>2c4z (Nat)</t>
+  </si>
+  <si>
+    <t>2izm (1_Mut)</t>
+  </si>
+  <si>
+    <t>2izn (4+_Mut)</t>
+  </si>
+  <si>
+    <t>2b2g (1_Mut)</t>
+  </si>
+  <si>
+    <t>2bq5 (2_Mut)</t>
+  </si>
+  <si>
+    <t>2c51 (1_Mut)</t>
+  </si>
+  <si>
+    <t>2c50 (1_Mut)</t>
+  </si>
+  <si>
+    <t>2iz8 (2_Mut)</t>
+  </si>
+  <si>
+    <t>AF_4_Mutation</t>
+  </si>
 </sst>
 </file>
 
@@ -551,7 +676,7 @@
       <name val="Courier"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +692,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -666,11 +803,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -745,6 +904,2092 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MS2 Complex (Same Protein Seq, Different RNA Seq) - Pearson Correlation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2bu1 (Nat)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.54700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8B2-8F40-A747-E68CE326DD95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1u1y (4+_Mut)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8B2-8F40-A747-E68CE326DD95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2c4q (Nat)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.17399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E8B2-8F40-A747-E68CE326DD95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2izm (1_Mut)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E8B2-8F40-A747-E68CE326DD95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2izn (4+_Mut)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.17699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E8B2-8F40-A747-E68CE326DD95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2c51 (1_Mut)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.24299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E8B2-8F40-A747-E68CE326DD95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2c50 (1_Mut)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E8B2-8F40-A747-E68CE326DD95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2iz8 (2_Mut)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E8B2-8F40-A747-E68CE326DD95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="761788960"/>
+        <c:axId val="968822768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="761788960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Mutations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968822768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="968822768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pearson Correlation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761788960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MS2 Complex (Same RNA Seq, Different Protein Seq) - Pearson Correlation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2b2e (2_Mut)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.29899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EECD-F241-BBAE-8CB7AA2F7F32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2bny (1_Mut)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.36099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EECD-F241-BBAE-8CB7AA2F7F32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2c4y (Nat)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.36099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EECD-F241-BBAE-8CB7AA2F7F32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2c4z (Nat)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.26700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EECD-F241-BBAE-8CB7AA2F7F32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2b2g (1_Mut)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.34699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EECD-F241-BBAE-8CB7AA2F7F32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2bq5 (2_Mut)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Mutation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AF_4_Mutation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EECD-F241-BBAE-8CB7AA2F7F32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="761788960"/>
+        <c:axId val="968822768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="761788960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Mutations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968822768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="968822768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pearson Correlation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761788960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1269,7 +3514,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1761,7 +4006,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2248,6 +4493,417 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.18</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MS2 Complex (Same Protein Seq, Different RNA Seq) - Pearson Correlation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{9B7E3704-A33C-0147-93DF-0587EF080D92}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>1-Mutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{67447C15-0762-D84A-BA83-37CD278A137F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>2-Mutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0D1F140F-AAB2-0A4D-815A-F8E19798C0F7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>3-Mutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D26C1B8A-3283-7B40-8A76-AF073FAF8CA6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>4-Mutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3AE30111-2DE0-AD4B-8F1F-223340CE4AAE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>AF-4-Mutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.26</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.32</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MS2 Complex (Same RNA Seq, Different Protein Seq) - Pearson Correlation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{54A5B790-AB68-3B41-9CB3-4FC8064EE022}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>1-Mutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DDDF2F65-418E-744F-B90A-14BA6FE91AE1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>2-Mutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B311048B-F0FA-3D46-9E60-BF1A91D9740F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>3-Mutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{71E1F2AA-D13D-214D-B8DC-BEBE684DC59B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>4-Mutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{28070EE1-B224-674C-BE06-0B1D9CD03439}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>AF-4-Mutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="900" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900"/>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2368,8 +5024,168 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2396,8 +5212,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2498,7 +5314,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2530,10 +5346,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2573,23 +5389,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2694,8 +5509,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2827,20 +5642,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2854,17 +5668,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2885,7 +5688,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2912,8 +5715,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3014,7 +5817,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3046,10 +5849,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3089,23 +5892,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3210,8 +6012,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3343,20 +6145,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3370,17 +6171,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3401,6 +6191,1036 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3916,7 +7736,1274 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC8241A-904F-54AB-3443-CCEB82522AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>802874</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CA4DEA-DAC0-8746-84F4-E17B267A3B40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="11" name="Chart 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C3F8C6-B88D-7D42-7E35-6F912E97D4AB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6375400" y="4051300"/>
+              <a:ext cx="8305800" cy="4114800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104811</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="12" name="Chart 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC6572F-CB8E-4740-9A74-74C24F6CD445}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15172121" y="4141367"/>
+              <a:ext cx="8225221" cy="4138157"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4350,10 +9437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53D215B-C4FC-1D4E-8397-0347E3F8121A}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4361,9 +9449,14 @@
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="178.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -4373,8 +9466,26 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:10" ht="18">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -4388,9 +9499,24 @@
         <f>LEN(C2)</f>
         <v>19</v>
       </c>
+      <c r="F2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.49</v>
+      </c>
+      <c r="H2">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="I2">
+        <v>-0.54700000000000004</v>
+      </c>
+      <c r="J2">
+        <v>5.8999999999999997E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="18">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="18">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4403,8 +9529,23 @@
         <f t="shared" ref="D3:D30" si="0">LEN(C3)</f>
         <v>19</v>
       </c>
+      <c r="F3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.21</v>
+      </c>
+      <c r="I3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>-0.29899999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:10" ht="18">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4419,7 +9560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:10" ht="18">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4434,7 +9575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4449,8 +9590,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" ht="18">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4464,7 +9605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18">
+    <row r="8" spans="1:10" ht="18">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4478,9 +9619,21 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="F8">
+        <v>0.08</v>
+      </c>
+      <c r="G8">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="H8">
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="I8">
+        <v>-0.41299999999999998</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" ht="18">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="18">
+      <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4493,8 +9646,23 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F9">
+        <v>0.114</v>
+      </c>
+      <c r="G9">
+        <v>0.23</v>
+      </c>
+      <c r="H9">
+        <v>0.224</v>
+      </c>
+      <c r="I9">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="J9">
+        <v>-0.36099999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="18">
+    <row r="10" spans="1:10" ht="18">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -4508,9 +9676,24 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F10">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H10">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="I10">
+        <v>-0.47799999999999998</v>
+      </c>
+      <c r="J10">
+        <v>-0.17399999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" ht="18">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" ht="18">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4524,8 +9707,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" ht="18">
+      <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4539,7 +9722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18">
+    <row r="13" spans="1:10" ht="18">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4554,8 +9737,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10" ht="18">
+      <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4568,8 +9751,23 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H14">
+        <v>-2E-3</v>
+      </c>
+      <c r="I14">
+        <v>-0.17100000000000001</v>
+      </c>
+      <c r="J14">
+        <v>-0.36099999999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" ht="18">
+    <row r="15" spans="1:10" ht="18">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4584,7 +9782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18">
+    <row r="16" spans="1:10" ht="18">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4599,8 +9797,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18">
-      <c r="A17" t="s">
+    <row r="17" spans="1:10" ht="18">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -4613,8 +9811,23 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F17">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="H17">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I17">
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="J17">
+        <v>-0.26700000000000002</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" ht="18">
+    <row r="18" spans="1:10" ht="18">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -4628,8 +9841,17 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F18">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="H18">
+        <v>0.55400000000000005</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" ht="18">
+    <row r="19" spans="1:10" ht="18">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -4643,8 +9865,17 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F19">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H19">
+        <v>-0.496</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" ht="18">
+    <row r="20" spans="1:10" ht="18">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4659,7 +9890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18">
+    <row r="21" spans="1:10" ht="18">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -4674,8 +9905,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18">
-      <c r="A22" t="s">
+    <row r="22" spans="1:10" ht="18">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4688,8 +9919,23 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F22">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.161</v>
+      </c>
+      <c r="H22">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="I22">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="J22">
+        <v>-0.34699999999999998</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" ht="18">
+    <row r="23" spans="1:10" ht="18">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4701,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18">
+    <row r="24" spans="1:10" ht="18">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -4715,8 +9961,17 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F24">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.317</v>
+      </c>
+      <c r="H24">
+        <v>0.26900000000000002</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" ht="18">
+    <row r="25" spans="1:10" ht="18">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -4730,9 +9985,18 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F25">
+        <v>0.105</v>
+      </c>
+      <c r="G25">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" ht="18">
-      <c r="A26" t="s">
+    <row r="26" spans="1:10" ht="18">
+      <c r="A26" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4745,8 +10009,23 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F26">
+        <v>0.246</v>
+      </c>
+      <c r="G26">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="H26">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I26">
+        <v>-0.224</v>
+      </c>
+      <c r="J26">
+        <v>-0.28999999999999998</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" ht="18">
+    <row r="27" spans="1:10" ht="18">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -4761,7 +10040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18">
+    <row r="28" spans="1:10" ht="18">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -4776,13 +10055,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18">
+    <row r="29" spans="1:10" ht="18">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18">
+    <row r="30" spans="1:10" ht="18">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -4796,23 +10075,44 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F30">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.158</v>
+      </c>
+      <c r="H30">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="11"/>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B30">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>$B$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C30">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4821,6 +10121,334 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE23384F-4AD1-4F4B-9A5A-F83ECC607AD8}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.49</v>
+      </c>
+      <c r="D2">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E2">
+        <v>-0.54700000000000004</v>
+      </c>
+      <c r="F2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>0.08</v>
+      </c>
+      <c r="C3">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="E3">
+        <v>-0.41299999999999998</v>
+      </c>
+      <c r="F3">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="C4">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E4">
+        <v>-0.47799999999999998</v>
+      </c>
+      <c r="F4">
+        <v>-0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="E5">
+        <v>-0.38800000000000001</v>
+      </c>
+      <c r="F5">
+        <v>-0.248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D6">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>-0.14599999999999999</v>
+      </c>
+      <c r="F6">
+        <v>-0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.317</v>
+      </c>
+      <c r="D7">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="E7">
+        <v>-0.26</v>
+      </c>
+      <c r="F7">
+        <v>-0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>0.105</v>
+      </c>
+      <c r="C8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.24</v>
+      </c>
+      <c r="E8">
+        <v>-0.214</v>
+      </c>
+      <c r="F8">
+        <v>-0.109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.158</v>
+      </c>
+      <c r="D9">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="E9">
+        <v>-0.45300000000000001</v>
+      </c>
+      <c r="F9">
+        <v>-0.245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.21</v>
+      </c>
+      <c r="E11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F11">
+        <v>-0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>0.114</v>
+      </c>
+      <c r="C12">
+        <v>0.23</v>
+      </c>
+      <c r="D12">
+        <v>0.224</v>
+      </c>
+      <c r="E12">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>-0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D13">
+        <v>-2E-3</v>
+      </c>
+      <c r="E13">
+        <v>-0.17100000000000001</v>
+      </c>
+      <c r="F13">
+        <v>-0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D14">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E14">
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="F14">
+        <v>-0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.161</v>
+      </c>
+      <c r="D15">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E15">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="F15">
+        <v>-0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>0.246</v>
+      </c>
+      <c r="C16">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="D16">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E16">
+        <v>-0.224</v>
+      </c>
+      <c r="F16">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="10"/>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B66CFA5-C9A2-3146-8E5C-F15C97926032}">
   <dimension ref="A1:L8"/>
   <sheetViews>

--- a/2nd_attempt/ms2_proteins.xlsx
+++ b/2nd_attempt/ms2_proteins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/rna_protein_project/Protein_RNA_Optimization-main/2nd_attempt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B560D0-B793-964F-A78F-D3511D7F851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B520935B-AA38-A645-89CB-4B6C2AAA8B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-102400" yWindow="-11760" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{87D89EA5-A593-3E4C-8982-81C126836FB8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17320" activeTab="1" xr2:uid="{87D89EA5-A593-3E4C-8982-81C126836FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,54 +20,14 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$B$2:$B$9</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet3!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet3!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet3!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet3!$E$2:$E$9</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet3!$F$2:$F$9</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet3!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet3!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet3!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet3!$E$2:$E$9</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet3!$F$2:$F$9</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet3!$B$11:$B$16</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet3!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet3!$B$9:$B$16</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet3!$C$11:$C$16</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet3!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet3!$C$9:$C$16</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet3!$D$11:$D$16</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet3!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet3!$D$9:$D$16</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet3!$E$11:$E$16</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$E$2:$E$9</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet3!$E$2:$E$9</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet3!$E$9:$E$16</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet3!$F$11:$F$16</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet3!$F$2:$F$9</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet3!$F$9:$F$16</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet3!$B$11:$B$16</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet3!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet3!$B$9:$B$16</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet3!$C$11:$C$16</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet3!$C$2:$C$9</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$F$2:$F$9</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet3!$C$9:$C$16</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet3!$D$11:$D$16</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet3!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet3!$D$9:$D$16</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet3!$E$11:$E$16</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet3!$E$2:$E$9</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet3!$E$9:$E$16</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet3!$F$11:$F$16</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet3!$F$2:$F$9</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet3!$F$9:$F$16</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$E$2:$E$9</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$B$11:$B$16</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$C$11:$C$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$D$11:$D$16</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$E$11:$E$16</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$F$11:$F$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>2b2e</t>
   </si>
@@ -809,27 +769,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1058,7 +998,7 @@
                   <c:v>-0.54700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>-0.16200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2371,19 +2311,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2E-3</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.17100000000000001</c:v>
+                  <c:v>-0.23200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.36099999999999999</c:v>
+                  <c:v>-0.28499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4498,27 +4438,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4550,6 +4490,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9B7E3704-A33C-0147-93DF-0587EF080D92}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>1-Mutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4572,6 +4513,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{67447C15-0762-D84A-BA83-37CD278A137F}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>2-Mutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4594,6 +4536,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0D1F140F-AAB2-0A4D-815A-F8E19798C0F7}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>3-Mutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4617,6 +4560,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D26C1B8A-3283-7B40-8A76-AF073FAF8CA6}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>4-Mutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4640,6 +4584,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3AE30111-2DE0-AD4B-8F1F-223340CE4AAE}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>AF-4-Mutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4680,27 +4625,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4732,6 +4677,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{54A5B790-AB68-3B41-9CB3-4FC8064EE022}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>1-Mutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4753,6 +4699,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DDDF2F65-418E-744F-B90A-14BA6FE91AE1}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>2-Mutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4774,6 +4721,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B311048B-F0FA-3D46-9E60-BF1A91D9740F}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>3-Mutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4796,6 +4744,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{71E1F2AA-D13D-214D-B8DC-BEBE684DC59B}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>4-Mutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4818,6 +4767,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{28070EE1-B224-674C-BE06-0B1D9CD03439}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>AF-4-Mutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8969,8 +8919,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15172121" y="4141367"/>
-              <a:ext cx="8225221" cy="4138157"/>
+              <a:off x="15062200" y="4118011"/>
+              <a:ext cx="8166101" cy="4114800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10099,20 +10049,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B30">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>$B$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C30">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10122,10 +10072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE23384F-4AD1-4F4B-9A5A-F83ECC607AD8}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10167,7 +10117,7 @@
         <v>-0.54700000000000004</v>
       </c>
       <c r="F2">
-        <v>5.8999999999999997E-2</v>
+        <v>-0.16200000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10355,19 +10305,19 @@
         <v>79</v>
       </c>
       <c r="B13">
-        <v>0.2</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="C13">
-        <v>0.23799999999999999</v>
+        <v>0.215</v>
       </c>
       <c r="D13">
-        <v>-2E-3</v>
+        <v>0.13</v>
       </c>
       <c r="E13">
-        <v>-0.17100000000000001</v>
+        <v>-0.23200000000000001</v>
       </c>
       <c r="F13">
-        <v>-0.36099999999999999</v>
+        <v>-0.28499999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10430,16 +10380,96 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:6">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:6">
       <c r="A19" s="10"/>
       <c r="B19" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C22">
+        <v>0.49</v>
+      </c>
+      <c r="D22">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E22">
+        <v>-0.54700000000000004</v>
+      </c>
+      <c r="F22">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="C23">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D23">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E23">
+        <v>-0.47799999999999998</v>
+      </c>
+      <c r="F23">
+        <v>-0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C24">
+        <v>0.215</v>
+      </c>
+      <c r="D24">
+        <v>0.13</v>
+      </c>
+      <c r="E24">
+        <v>-0.23200000000000001</v>
+      </c>
+      <c r="F24">
+        <v>-0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="C25">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D25">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E25">
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="F25">
+        <v>-0.26700000000000002</v>
       </c>
     </row>
   </sheetData>
